--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Inhba-Acvr1b.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Inhba-Acvr1b.xlsx
@@ -528,22 +528,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>4.123204333333333</v>
+        <v>0.05045533333333333</v>
       </c>
       <c r="H2">
-        <v>12.369613</v>
+        <v>0.151366</v>
       </c>
       <c r="I2">
-        <v>0.2909967288544799</v>
+        <v>0.004442474524580737</v>
       </c>
       <c r="J2">
-        <v>0.2909967288544799</v>
+        <v>0.004442474524580737</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>4.453045666666667</v>
+        <v>1.522526333333333</v>
       </c>
       <c r="N2">
-        <v>13.359137</v>
+        <v>4.567579</v>
       </c>
       <c r="O2">
-        <v>0.4394129038053478</v>
+        <v>0.2115373313282365</v>
       </c>
       <c r="P2">
-        <v>0.4394129038053478</v>
+        <v>0.2115373313282365</v>
       </c>
       <c r="Q2">
-        <v>18.36081718933122</v>
+        <v>0.07681957365711112</v>
       </c>
       <c r="R2">
-        <v>165.247354703981</v>
+        <v>0.6913761629140001</v>
       </c>
       <c r="S2">
-        <v>0.1278677176238044</v>
+        <v>0.0009397492054234853</v>
       </c>
       <c r="T2">
-        <v>0.1278677176238044</v>
+        <v>0.0009397492054234853</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>4.123204333333333</v>
+        <v>0.05045533333333333</v>
       </c>
       <c r="H3">
-        <v>12.369613</v>
+        <v>0.151366</v>
       </c>
       <c r="I3">
-        <v>0.2909967288544799</v>
+        <v>0.004442474524580737</v>
       </c>
       <c r="J3">
-        <v>0.2909967288544799</v>
+        <v>0.004442474524580737</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>9.450299000000001</v>
       </c>
       <c r="O3">
-        <v>0.3108421842981904</v>
+        <v>0.4376697219060474</v>
       </c>
       <c r="P3">
-        <v>0.3108421842981904</v>
+        <v>0.4376697219060474</v>
       </c>
       <c r="Q3">
-        <v>12.98850459603189</v>
+        <v>0.1589393287148889</v>
       </c>
       <c r="R3">
-        <v>116.896541364287</v>
+        <v>1.430453958434</v>
       </c>
       <c r="S3">
-        <v>0.09045405882075477</v>
+        <v>0.001944336589747951</v>
       </c>
       <c r="T3">
-        <v>0.09045405882075476</v>
+        <v>0.001944336589747951</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>4.123204333333333</v>
+        <v>0.05045533333333333</v>
       </c>
       <c r="H4">
-        <v>12.369613</v>
+        <v>0.151366</v>
       </c>
       <c r="I4">
-        <v>0.2909967288544799</v>
+        <v>0.004442474524580737</v>
       </c>
       <c r="J4">
-        <v>0.2909967288544799</v>
+        <v>0.004442474524580737</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.530935</v>
+        <v>2.524809666666667</v>
       </c>
       <c r="N4">
-        <v>7.592805</v>
+        <v>7.574429</v>
       </c>
       <c r="O4">
-        <v>0.2497449118964618</v>
+        <v>0.3507929467657161</v>
       </c>
       <c r="P4">
-        <v>0.2497449118964618</v>
+        <v>0.3507929467657162</v>
       </c>
       <c r="Q4">
-        <v>10.435562159385</v>
+        <v>0.1273901133348889</v>
       </c>
       <c r="R4">
-        <v>93.920059434465</v>
+        <v>1.146511020014</v>
       </c>
       <c r="S4">
-        <v>0.07267495240992067</v>
+        <v>0.0015583887294093</v>
       </c>
       <c r="T4">
-        <v>0.07267495240992067</v>
+        <v>0.001558388729409301</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>25.300919</v>
       </c>
       <c r="I5">
-        <v>0.5952073574179045</v>
+        <v>0.7425623198471305</v>
       </c>
       <c r="J5">
-        <v>0.5952073574179045</v>
+        <v>0.7425623198471305</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>4.453045666666667</v>
+        <v>1.522526333333333</v>
       </c>
       <c r="N5">
-        <v>13.359137</v>
+        <v>4.567579</v>
       </c>
       <c r="O5">
-        <v>0.4394129038053478</v>
+        <v>0.2115373313282365</v>
       </c>
       <c r="P5">
-        <v>0.4394129038053478</v>
+        <v>0.2115373313282365</v>
       </c>
       <c r="Q5">
-        <v>37.55538257187811</v>
+        <v>12.84043847834456</v>
       </c>
       <c r="R5">
-        <v>337.998443146903</v>
+        <v>115.563946305101</v>
       </c>
       <c r="S5">
-        <v>0.2615417932893089</v>
+        <v>0.1570796514853664</v>
       </c>
       <c r="T5">
-        <v>0.2615417932893089</v>
+        <v>0.1570796514853664</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>25.300919</v>
       </c>
       <c r="I6">
-        <v>0.5952073574179045</v>
+        <v>0.7425623198471305</v>
       </c>
       <c r="J6">
-        <v>0.5952073574179045</v>
+        <v>0.7425623198471305</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>9.450299000000001</v>
       </c>
       <c r="O6">
-        <v>0.3108421842981904</v>
+        <v>0.4376697219060474</v>
       </c>
       <c r="P6">
-        <v>0.3108421842981904</v>
+        <v>0.4376697219060474</v>
       </c>
       <c r="Q6">
         <v>26.56680550275345</v>
@@ -818,10 +818,10 @@
         <v>239.101249524781</v>
       </c>
       <c r="S6">
-        <v>0.1850155550901352</v>
+        <v>0.324997044025403</v>
       </c>
       <c r="T6">
-        <v>0.1850155550901351</v>
+        <v>0.324997044025403</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>25.300919</v>
       </c>
       <c r="I7">
-        <v>0.5952073574179045</v>
+        <v>0.7425623198471305</v>
       </c>
       <c r="J7">
-        <v>0.5952073574179045</v>
+        <v>0.7425623198471305</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.530935</v>
+        <v>2.524809666666667</v>
       </c>
       <c r="N7">
-        <v>7.592805</v>
+        <v>7.574429</v>
       </c>
       <c r="O7">
-        <v>0.2497449118964618</v>
+        <v>0.3507929467657161</v>
       </c>
       <c r="P7">
-        <v>0.2497449118964618</v>
+        <v>0.3507929467657162</v>
       </c>
       <c r="Q7">
-        <v>21.344993809755</v>
+        <v>21.29333495558344</v>
       </c>
       <c r="R7">
-        <v>192.104944287795</v>
+        <v>191.640014600251</v>
       </c>
       <c r="S7">
-        <v>0.1486500090384604</v>
+        <v>0.2604856243363611</v>
       </c>
       <c r="T7">
-        <v>0.1486500090384604</v>
+        <v>0.2604856243363611</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.612402333333333</v>
+        <v>2.873389</v>
       </c>
       <c r="H8">
-        <v>4.837207</v>
+        <v>8.620167</v>
       </c>
       <c r="I8">
-        <v>0.1137959137276156</v>
+        <v>0.2529952056282888</v>
       </c>
       <c r="J8">
-        <v>0.1137959137276156</v>
+        <v>0.2529952056282888</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>4.453045666666667</v>
+        <v>1.522526333333333</v>
       </c>
       <c r="N8">
-        <v>13.359137</v>
+        <v>4.567579</v>
       </c>
       <c r="O8">
-        <v>0.4394129038053478</v>
+        <v>0.2115373313282365</v>
       </c>
       <c r="P8">
-        <v>0.4394129038053478</v>
+        <v>0.2115373313282365</v>
       </c>
       <c r="Q8">
-        <v>7.180101223373224</v>
+        <v>4.374810418410333</v>
       </c>
       <c r="R8">
-        <v>64.62091101035901</v>
+        <v>39.37329376569301</v>
       </c>
       <c r="S8">
-        <v>0.05000339289223441</v>
+        <v>0.05351793063744665</v>
       </c>
       <c r="T8">
-        <v>0.0500033928922344</v>
+        <v>0.05351793063744665</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.612402333333333</v>
+        <v>2.873389</v>
       </c>
       <c r="H9">
-        <v>4.837207</v>
+        <v>8.620167</v>
       </c>
       <c r="I9">
-        <v>0.1137959137276156</v>
+        <v>0.2529952056282888</v>
       </c>
       <c r="J9">
-        <v>0.1137959137276156</v>
+        <v>0.2529952056282888</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>9.450299000000001</v>
       </c>
       <c r="O9">
-        <v>0.3108421842981904</v>
+        <v>0.4376697219060474</v>
       </c>
       <c r="P9">
-        <v>0.3108421842981904</v>
+        <v>0.4376697219060474</v>
       </c>
       <c r="Q9">
-        <v>5.07922805276589</v>
+        <v>9.051461731103668</v>
       </c>
       <c r="R9">
-        <v>45.713052474893</v>
+        <v>81.46315557993302</v>
       </c>
       <c r="S9">
-        <v>0.03537257038730047</v>
+        <v>0.1107283412908964</v>
       </c>
       <c r="T9">
-        <v>0.03537257038730045</v>
+        <v>0.1107283412908964</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.612402333333333</v>
+        <v>2.873389</v>
       </c>
       <c r="H10">
-        <v>4.837207</v>
+        <v>8.620167</v>
       </c>
       <c r="I10">
-        <v>0.1137959137276156</v>
+        <v>0.2529952056282888</v>
       </c>
       <c r="J10">
-        <v>0.1137959137276156</v>
+        <v>0.2529952056282888</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>2.530935</v>
+        <v>2.524809666666667</v>
       </c>
       <c r="N10">
-        <v>7.592805</v>
+        <v>7.574429</v>
       </c>
       <c r="O10">
-        <v>0.2497449118964618</v>
+        <v>0.3507929467657161</v>
       </c>
       <c r="P10">
-        <v>0.2497449118964618</v>
+        <v>0.3507929467657162</v>
       </c>
       <c r="Q10">
-        <v>4.080885499515</v>
+        <v>7.254760323293667</v>
       </c>
       <c r="R10">
-        <v>36.727969495635</v>
+        <v>65.292842909643</v>
       </c>
       <c r="S10">
-        <v>0.02841995044808073</v>
+        <v>0.08874893369994571</v>
       </c>
       <c r="T10">
-        <v>0.02841995044808072</v>
+        <v>0.08874893369994573</v>
       </c>
     </row>
   </sheetData>
